--- a/H4/test_a.xlsx
+++ b/H4/test_a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katri\OneDrive\Desktop\Haskoli25\TOL105M\H4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA7818-7F0F-4C5D-800F-CC765EAFC28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A97E377-2655-4F6D-9096-E8B0BA0D9B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{1368D723-6D5A-47F3-934E-7A5204CD0AD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1368D723-6D5A-47F3-934E-7A5204CD0AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -44,22 +44,13 @@
     <t>Snúningur um x ás</t>
   </si>
   <si>
-    <t>T(0, 5)</t>
+    <t xml:space="preserve">Hliðrun </t>
   </si>
   <si>
-    <t>S(1, -1 )</t>
+    <t>T(1.5, 5)</t>
   </si>
   <si>
-    <t>S(0.5,1)</t>
-  </si>
-  <si>
-    <t>Skölun</t>
-  </si>
-  <si>
-    <t>T(1.5, 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hliðrun </t>
+    <t>S(0.5, -1 )</t>
   </si>
 </sst>
 </file>
@@ -101,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -179,11 +170,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +213,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -301,15 +304,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>181760</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>4014</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -841,16 +844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2145</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>87138</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3218</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1073</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88211</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -865,8 +868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2675152" y="5068201"/>
-          <a:ext cx="1073" cy="188784"/>
+          <a:off x="2812753" y="5134707"/>
+          <a:ext cx="1073" cy="191573"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -891,14 +894,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>3217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3594</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98844</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>3594</xdr:rowOff>
     </xdr:to>
@@ -915,8 +918,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2482078" y="4508285"/>
-          <a:ext cx="3594" cy="563510"/>
+          <a:off x="2641023" y="4575217"/>
+          <a:ext cx="3594" cy="571877"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -941,16 +944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1438</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3594</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95222</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3594</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>5032</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97379</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186739</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -965,8 +968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9167004" y="2861094"/>
-          <a:ext cx="181873" cy="1438"/>
+          <a:off x="2639130" y="5138301"/>
+          <a:ext cx="183864" cy="1438"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -991,9 +994,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>4290</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1051,15 +1054,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>5171</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>182260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>9818</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1101,15 +1104,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>4120</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>106191</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>4291</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1151,15 +1154,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>17971</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>185566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>96538</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>186905</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1201,15 +1204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>92247</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>185566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>94392</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1251,15 +1254,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>104046</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>186639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>104236</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>14376</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1301,15 +1304,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>101900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>5364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>95465</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>6436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1416,15 +1419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>17897</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>18257</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1546,15 +1549,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>175654</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>182580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>17176</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1611,15 +1614,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>179456</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>154080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>15940</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>4260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1676,15 +1679,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>167053</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>190140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>179653</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1794,6 +1797,224 @@
             <a:xfrm>
               <a:off x="1431344" y="2257020"/>
               <a:ext cx="35640" cy="41040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>96776</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>96776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCB5F91-1A29-4A61-8413-8B3E90776121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3730930" y="3244739"/>
+          <a:ext cx="0" cy="771292"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>570</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711F51BB-BAB3-412D-BC6E-58220B7DF6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3734391" y="3242669"/>
+          <a:ext cx="82041" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88941</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4054</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4053</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EC28C2-20AD-4527-B79E-BD901747BB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5743143" y="3990566"/>
+          <a:ext cx="279900" cy="13987"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>174720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113484</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC62876-5818-E432-F4DE-F7E3AB37B4B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7973871" y="5127720"/>
+            <a:ext cx="47160" cy="48600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC62876-5818-E432-F4DE-F7E3AB37B4B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7967751" y="5121600"/>
+              <a:ext cx="59400" cy="60840"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1999,6 +2220,34 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 63 24575,'0'-4'0,"0"0"0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,3-5 0,-5 8 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-2 0-2,1-1-1,-1 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,-1-1-1,1 1 0,0 0 1,-14 20 202,-24 10-1685,30-27-5341</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-24T10:41:00.090"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">105 74 24575,'3'0'0,"-7"0"0,-17-4 0,21 4 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,2 0 0,15-12 0,-6 16 0,-10-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,-1 2 0,2-4 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-27-8 0,-19-23 0,46 30 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,66 2 0,-59-1 0,-7 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 5 0,0 2 0,0 0 0,0 0 0,0-1 0,-1 1 0,0 0 0,-4 12 0,-4-8-1365,2-9-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2536,51 +2785,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D452669-54BD-40E9-8976-A94805C27715}">
-  <dimension ref="F12:AI34"/>
+  <dimension ref="F12:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="35" width="2.7265625" style="2"/>
-    <col min="36" max="36" width="2.7265625" style="2" customWidth="1"/>
-    <col min="37" max="38" width="2.7265625" style="2"/>
-    <col min="39" max="49" width="2.7265625" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="2.7265625" style="2"/>
+    <col min="1" max="35" width="2.7109375" style="2"/>
+    <col min="36" max="36" width="2.7109375" style="2" customWidth="1"/>
+    <col min="37" max="38" width="2.7109375" style="2"/>
+    <col min="39" max="49" width="2.7109375" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="2.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="12" spans="7:34" x14ac:dyDescent="0.75">
+    <row r="12" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>5</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="7:34" x14ac:dyDescent="0.75">
+    <row r="13" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
         <v>4</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>4</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>4</v>
       </c>
-      <c r="AF13" s="10"/>
     </row>
-    <row r="14" spans="7:34" x14ac:dyDescent="0.75">
+    <row r="14" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G14" s="1">
         <v>3</v>
       </c>
@@ -2588,55 +2836,50 @@
       <c r="N14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>3</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD14" s="1">
+      <c r="AA14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="1">
         <v>3</v>
       </c>
-      <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="7:34" x14ac:dyDescent="0.75">
+    <row r="15" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="5"/>
       <c r="N15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="1">
+      <c r="AF15" s="1">
         <v>2</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="7:34" x14ac:dyDescent="0.75">
+    <row r="16" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>1</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AF16" s="1">
         <v>1</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="17" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3">
@@ -2654,146 +2897,117 @@
       <c r="L17" s="3">
         <v>5</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="3">
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="3">
         <v>1</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5</v>
       </c>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="3">
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="3">
         <v>1</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AH17" s="3">
         <v>2</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AI17" s="3">
         <v>3</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AJ17" s="3">
         <v>4</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AK17" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="S18" s="1">
+    <row r="18" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="T18" s="1">
         <v>-1</v>
       </c>
-      <c r="U18" s="5"/>
-      <c r="AD18" s="1">
+      <c r="U18" s="11"/>
+      <c r="AF18" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="S19" s="1">
+    <row r="19" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="T19" s="1">
         <v>-2</v>
       </c>
-      <c r="U19" s="5"/>
-      <c r="AD19" s="1">
+      <c r="U19" s="11"/>
+      <c r="AF19" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="S20" s="1">
+    <row r="20" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="T20" s="1">
         <v>-3</v>
       </c>
-      <c r="U20" s="5"/>
-      <c r="AD20" s="1">
+      <c r="U20" s="11"/>
+      <c r="AF20" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="S21" s="1">
+    <row r="21" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="T21" s="1">
         <v>-4</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8"/>
-      <c r="AD21" s="1">
+      <c r="V21" s="8"/>
+      <c r="AF21" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="S22" s="1">
+    <row r="22" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="T22" s="1">
         <v>-5</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AF22" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="24" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L24" s="1">
         <v>5</v>
       </c>
-      <c r="X24" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="25" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="25" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L25" s="1">
         <v>4</v>
       </c>
-      <c r="X25" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="26" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="H26" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="26" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L26" s="1">
         <v>3</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="1">
-        <v>3</v>
-      </c>
+      <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="6:35" x14ac:dyDescent="0.75">
-      <c r="H27" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
         <v>2</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" s="1">
-        <v>2</v>
-      </c>
+      <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="28" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L28" s="1">
         <v>1</v>
       </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="29" spans="6:43" x14ac:dyDescent="0.25">
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3">
@@ -2811,66 +3025,86 @@
       <c r="Q29" s="3">
         <v>5</v>
       </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>5</v>
-      </c>
+      <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="30" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L30" s="1">
         <v>-1</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1">
-        <v>-1</v>
-      </c>
+      <c r="Z30" s="1"/>
+      <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="31" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L31" s="1">
         <v>-2</v>
       </c>
-      <c r="X31" s="1">
-        <v>-2</v>
-      </c>
+      <c r="Z31" s="1"/>
+      <c r="AB31" s="10"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
     </row>
-    <row r="32" spans="6:35" x14ac:dyDescent="0.75">
+    <row r="32" spans="6:43" x14ac:dyDescent="0.25">
       <c r="L32" s="1">
         <v>-3</v>
       </c>
-      <c r="X32" s="1">
-        <v>-3</v>
-      </c>
+      <c r="Z32" s="1"/>
+      <c r="AB32" s="5"/>
+      <c r="AL32" s="1"/>
+      <c r="AN32" s="5"/>
     </row>
-    <row r="33" spans="12:24" x14ac:dyDescent="0.75">
+    <row r="33" spans="12:42" x14ac:dyDescent="0.25">
       <c r="L33" s="1">
         <v>-4</v>
       </c>
-      <c r="X33" s="1">
-        <v>-4</v>
-      </c>
+      <c r="Z33" s="1"/>
+      <c r="AB33" s="5"/>
+      <c r="AL33" s="1"/>
+      <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="12:24" x14ac:dyDescent="0.75">
+    <row r="34" spans="12:42" x14ac:dyDescent="0.25">
       <c r="L34" s="1">
         <v>-5</v>
       </c>
-      <c r="X34" s="1">
-        <v>-5</v>
-      </c>
+      <c r="Z34" s="1"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="8"/>
+      <c r="AL34" s="1"/>
+      <c r="AN34" s="5"/>
+    </row>
+    <row r="35" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AL35" s="1"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="8"/>
+    </row>
+    <row r="36" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1"/>
+      <c r="AL36" s="1"/>
+    </row>
+    <row r="37" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="12:42" x14ac:dyDescent="0.25">
+      <c r="Z40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
